--- a/tryExcel.xlsx
+++ b/tryExcel.xlsx
@@ -2,15 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -26,7 +25,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b val="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,10 +47,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -62,7 +72,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -425,180 +435,738 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B1:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="24.88671875" customWidth="1" min="1" max="1"/>
+    <col width="17.88671875" customWidth="1" min="2" max="2"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="n">
-        <v>2</v>
-      </c>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MAC</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B2" t="n">
-        <v>24</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>c4:27:28:71:68:a8</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>7</v>
-      </c>
-      <c r="B3" t="n">
-        <v>23</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>20:08:89:83:e4:50</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>19</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ec:be:5f:22:85:32</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>22</v>
-      </c>
-      <c r="B5" t="n">
-        <v>13</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>f8:64:b8:82:b6:f8</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>13</v>
-      </c>
-      <c r="B6" t="n">
-        <v>6</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>74:6f:88:db:67:19</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>22</v>
-      </c>
-      <c r="B7" t="n">
-        <v>26</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3c:a7:ae:84:1c:a6</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>8</v>
-      </c>
-      <c r="B8" t="n">
-        <v>4</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>98:00:6a:b0:53:ce</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>9c:53:22:f2:1e:4c</t>
+        </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>18</v>
-      </c>
-      <c r="B10" t="n">
-        <v>17</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>c0:51:5c:a8:15:e7</t>
+        </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>23</v>
-      </c>
-      <c r="B11" t="n">
-        <v>29</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>c0:94:ad:64:3e:10</t>
+        </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n">
-        <v>8</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>20:08:89:77:f3:02</t>
+        </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>16</v>
-      </c>
-      <c r="B13" t="n">
-        <v>21</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>f8:64:b8:82:0d:20</t>
+        </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>6</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>c4:27:28:74:b8:e6</t>
+        </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>2</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>98:00:6a:b6:68:07</t>
+        </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>8</v>
-      </c>
-      <c r="B16" t="n">
-        <v>6</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>50:78:b3:e0:b9:a6</t>
+        </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>18</v>
-      </c>
-      <c r="B17" t="n">
-        <v>10</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>20:08:89:78:c8:fe</t>
+        </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>19</v>
-      </c>
-      <c r="B18" t="n">
-        <v>15</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>74:6f:88:db:64:cb</t>
+        </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>22</v>
-      </c>
-      <c r="B19" t="n">
-        <v>13</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>74:6f:88:e9:5b:6c</t>
+        </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>12</v>
-      </c>
-      <c r="B20" t="n">
-        <v>4</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>f8:64:b8:82:bc:48</t>
+        </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>7</v>
-      </c>
-      <c r="B21" t="n">
-        <v>9</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>54:46:17:cb:87:c0</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>a8:02:db:0d:34:ef</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>98:00:6a:b9:48:9f</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>94:28:6f:01:fc:d1</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ec:be:5f:20:ba:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>90:fd:73:e0:19:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>8c:dc:02:e4:48:6d</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>90:fd:73:dd:60:0b</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>28:de:a8:ec:56:bc</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>94:e3:ee:f4:ec:c6</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ec:be:5f:b9:00:90</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ec:f0:fe:b0:79:3c</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>ec:f0:fe:da:ff:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>24:58:6e:95:d4:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>a8:02:db:0f:4b:d6</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>ec:be:5f:1f:ce:5a</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>1c:44:19:6d:e2:c8</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>d4:b7:09:32:db:71</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>24:d3:f2:a4:3a:97</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>94:e3:ee:f5:bf:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>c0:51:5c:a6:e8:ee</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>20:08:89:7b:b8:e8</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>08:aa:89:48:07:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>c0:94:ad:63:72:6e</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>20:e8:82:e1:39:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>54:46:17:dc:23:69</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>94:e3:ee:ee:cb:96</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>20:08:89:86:55:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>20:e8:82:e3:dc:f4</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>34:da:b7:cc:23:67</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>f8:64:b8:88:f8:ef</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>a4:f3:3b:a8:dc:4a</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>a8:74:84:ec:cb:a4</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>94:e3:ee:f5:bb:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>30:de:4b:b4:eb:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>74:6f:88:dd:b6:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>24:58:6e:a0:1c:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>98:00:6a:ba:a4:90</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>08:aa:89:49:af:4e</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>24:58:6e:a2:c0:d4</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>14:09:b4:cf:b4:b9</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>ec:be:5f:be:76:70</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>a8:02:db:0b:6a:6d</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>98:00:6a:be:44:7e</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>c4:27:28:70:72:90</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>c0:94:ad:66:39:b8</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>a8:74:84:eb:27:0e</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>c0:fd:84:f9:1f:fb</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>e8:48:b8:03:2f:5e</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>90:fd:73:f5:bd:75</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>94:e3:ee:e0:a3:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>ec:be:5f:b8:7d:a0</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>e0:19:54:20:56:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>24:d3:f2:a3:e5:65</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>98:00:6a:30:2a:72</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>fc:40:09:b9:c7:e3</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>90:fd:73:b1:e8:8c</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>c0:51:5c:a8:ae:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>50:42:89:73:d8:f8</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>d4:b7:09:2e:64:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>ec:be:5f:c6:ad:b8</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>90:fd:73:e1:d1:a1</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>c4:27:28:72:57:fe</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>78:8c:b5:8e:dd:bc</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>78:8c:b5:8e:ef:96</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>20:08:89:73:9f:1d</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>fc:40:09:bb:6d:84</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>90:fd:73:de:38:5c</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>fc:40:09:bf:21:66</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>90:fd:73:e0:c4:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>ec:f0:fe:da:d9:70</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>78:8c:b5:8e:a0:a4</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>ec:f0:fe:af:55:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>1c:44:19:67:36:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>74:6f:88:de:4b:73</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>c0:51:5c:9f:59:b8</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>14:09:b4:c9:28:bf</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>f8:64:b8:84:c2:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>28:77:77:a4:ac:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>8c:dc:02:e5:a1:cd</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>fc:40:09:bc:36:8a</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>ec:be:5f:bf:f3:e0</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>54:46:17:e9:ed:55</t>
+        </is>
       </c>
     </row>
   </sheetData>
